--- a/output.xlsx
+++ b/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,11 +449,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tăng trưởng dài hạn</t>
+          <t>Ổn định giá</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.463932962529274</v>
+        <v>0.633345720302242</v>
       </c>
     </row>
     <row r="3">
@@ -463,27 +463,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2111026541764247</v>
+        <v>0.2604979561501301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Khả năng chống lạm phát</t>
+          <t>Tăng trưởng dài hạn</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2628444574551132</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Rủi ro đầu tư</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.06211992583918813</v>
+        <v>0.1061563235476279</v>
       </c>
     </row>
   </sheetData>
@@ -497,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,11 +510,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Vàng</t>
+          <t>Ngoại tệ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -534,27 +524,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2401890673619175</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ngoại tệ</t>
+          <t>Vàng</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2305230538493319</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Trái phiếu</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.133924266726841</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Trọng số tiêu chí" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Xếp hạng phương án" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Ma trận tiêu chí" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Ma trận phương án" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Thông số" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,31 +452,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ổn định giá</t>
+          <t>Tiêu chí 1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.633345720302242</v>
+        <v>0.1637806637806638</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tính thanh khoản</t>
+          <t>Tiêu chí 2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2604979561501301</v>
+        <v>0.2972582972582973</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tăng trưởng dài hạn</t>
+          <t>Tiêu chí 3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1061563235476279</v>
+        <v>0.538961038961039</v>
       </c>
     </row>
   </sheetData>
@@ -510,31 +513,564 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ngoại tệ</t>
+          <t>Phương án 1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2649052887148125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cổ phiếu</t>
+          <t>Phương án 2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2649052887148125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vàng</t>
+          <t>Phương án 3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2649052887148125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ma trận tiêu chí</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tiêu chí 1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tiêu chí 2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tiêu chí 3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Tiêu chí 1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Tiêu chí 2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Tiêu chí 3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ma trận phương án cho tiêu chí Tiêu chí 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Phương án 1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Phương án 2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Phương án 3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr"/>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Ma trận phương án cho tiêu chí Tiêu chí 2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Ma trận phương án cho tiêu chí Tiêu chí 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Phương án 1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Phương án 2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Phương án 3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Phương án 1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Phương án 2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Phương án 3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Phương án 1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Phương án 2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Phương án 3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Thông số</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Giá trị</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.007938506010665607</v>
       </c>
     </row>
   </sheetData>
